--- a/TextCasesReport.xlsx
+++ b/TextCasesReport.xlsx
@@ -90,7 +90,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +101,12 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -139,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -153,14 +159,17 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -495,8 +504,8 @@
     <col min="23" max="23" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="24" max="24" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="25" max="25" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="27.75">
@@ -530,7 +539,7 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
